--- a/src/test/java/Static_Data/Data/Static_Data.xlsx
+++ b/src/test/java/Static_Data/Data/Static_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\Static_Data_V3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Static_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A25D4-1F06-40AC-ADD1-45B1939B4A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F92AF0-8124-42C3-800E-EFFAA2CC9AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="9" r:id="rId1"/>
@@ -27,6 +27,11 @@
     <sheet name="ETBHTB" sheetId="22" r:id="rId12"/>
     <sheet name="BlotterPackagePermissions" sheetId="20" r:id="rId13"/>
     <sheet name="BlotterPermissions" sheetId="21" r:id="rId14"/>
+    <sheet name="PutCall" sheetId="23" r:id="rId15"/>
+    <sheet name="CoveredUncovered" sheetId="24" r:id="rId16"/>
+    <sheet name="CustomerFirm" sheetId="25" r:id="rId17"/>
+    <sheet name="OptionOrderType" sheetId="26" r:id="rId18"/>
+    <sheet name="OptionTIF" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="285">
   <si>
     <t>Content_Type</t>
   </si>
@@ -754,6 +759,156 @@
   </si>
   <si>
     <t>Verify_StaticData_BlotterPermissions_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/staticData/PutCall</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_PutCall_TC0001</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_PutCall_TC0002</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>StaticData_PutCall_BasePath</t>
+  </si>
+  <si>
+    <t>StaticData_PutCall_StatusCode</t>
+  </si>
+  <si>
+    <t>Validate_PutCall_Name</t>
+  </si>
+  <si>
+    <t>Validate_PutCall_Value</t>
+  </si>
+  <si>
+    <t>StaticData_PutCall_TestCases</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_CoveredUncovered_TC0001</t>
+  </si>
+  <si>
+    <t>StaticData_CoveredUncovered_TestCases</t>
+  </si>
+  <si>
+    <t>StaticData_CoveredUncovered_BasePath</t>
+  </si>
+  <si>
+    <t>StaticData_CoveredUncovered_StatusCode</t>
+  </si>
+  <si>
+    <t>Validate_CoveredUncovered_Name</t>
+  </si>
+  <si>
+    <t>Validate_CoveredUncovered_Value</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/staticData/CoveredUncovered</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_CoveredUncovered_TC0002</t>
+  </si>
+  <si>
+    <t>COVERED</t>
+  </si>
+  <si>
+    <t>UNCOVERED</t>
+  </si>
+  <si>
+    <t>StaticData_CustomerFirm_TestCases</t>
+  </si>
+  <si>
+    <t>StaticData_CustomerFirm_BasePath</t>
+  </si>
+  <si>
+    <t>StaticData_CustomerFirm_StatusCode</t>
+  </si>
+  <si>
+    <t>Validate_CustomerFirm_Name</t>
+  </si>
+  <si>
+    <t>Validate_CustomerFirm_Value</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_CustomerFirm_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/staticData/CustomerFirm</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_CustomerFirm_TC0002</t>
+  </si>
+  <si>
+    <t>FIRM</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_OptionOrderType_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/staticData/OptionOrderType</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_OptionOrderType_TC0002</t>
+  </si>
+  <si>
+    <t>StaticData_OptionOrderType_TestCases</t>
+  </si>
+  <si>
+    <t>StaticData_OptionOrderType_BasePath</t>
+  </si>
+  <si>
+    <t>StaticData_OptionOrderType_StatusCode</t>
+  </si>
+  <si>
+    <t>Validate_OptionOrderType_Name</t>
+  </si>
+  <si>
+    <t>Validate_OptionOrderType_Value</t>
+  </si>
+  <si>
+    <t>StaticData_OptionTIF_TestCases</t>
+  </si>
+  <si>
+    <t>StaticData_OptionTIF_BasePath</t>
+  </si>
+  <si>
+    <t>StaticData_OptionTIF_StatusCode</t>
+  </si>
+  <si>
+    <t>Validate_OptionTIF_Name</t>
+  </si>
+  <si>
+    <t>Validate_OptionTIF_Value</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_OptionTIF_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/staticData/OptionTIF</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_OptionTIF_TC0002</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_OptionTIF_TC0003</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>EndpointVersion</t>
   </si>
 </sst>
 </file>
@@ -1187,204 +1342,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F97819-0497-470B-932D-7124C01F5F73}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="1" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10001</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10002</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10003</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10004</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10005</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1397,136 +1576,152 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A00EB-9916-402E-A52E-47847770BA71}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>102</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>103</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
+      <c r="H5" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1538,205 +1733,229 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19004EE8-B1F1-4529-B662-24C899BA3C5C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="1" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>111</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
         <v>115</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
         <v>116</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
+      <c r="H8" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1748,80 +1967,87 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0CA8EC-C674-4DE4-8CE4-3B36CC901C3B}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1834,215 +2060,233 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49457023-34CD-4B1B-B7DC-20BBA5A807F9}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>132</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>138</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>139</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>140</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
       <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2055,70 +2299,624 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6726326-2C70-4439-A0BF-1A27192F1C12}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>132</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>133</v>
       </c>
+      <c r="H2" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81768D37-C102-4CB6-B153-7090BE3D93AD}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE88B395-5588-4CAE-91B8-7344D7D4DCBF}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC773AF-692E-4D32-B04F-4CD8F723C684}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBE75A1-59F4-4EE0-A196-5F3004F5BDCF}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F6CCF-BB7D-4457-B17E-E5A4145A94D1}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2126,203 +2924,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1319A557-D53B-4CAE-8A5D-C1F0018C299F}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>10001</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2335,99 +3155,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A5A6CE-1FF1-41EB-A637-FC236B4E00FB}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2440,205 +3270,229 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750D010-10D0-4EB3-A3FE-203D0C24AABA}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="1" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
+      <c r="H8" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2650,113 +3504,126 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8DFC57-1736-45E9-A86D-2443AC6C695A}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
+      <c r="H4" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2768,205 +3635,230 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD2B4-F7F5-4A73-BB5A-E209C9D92C70}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
         <v>75</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
+      <c r="H8" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2978,113 +3870,125 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C633D2-212A-469D-B16A-DA7E2E5F6C2C}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="10" customWidth="1"/>
+    <col min="1" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>200</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>6</v>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3096,136 +4000,152 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDE52E5-B96A-42BA-9C18-471F7BF48EC7}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>200</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>200</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>6</v>
+      <c r="H5" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3237,90 +4157,100 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A187E8-21EB-411C-ABE1-3FE3637DF611}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
+      <c r="H3" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/Static_Data/Data/Static_Data.xlsx
+++ b/src/test/java/Static_Data/Data/Static_Data.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Static_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F92AF0-8124-42C3-800E-EFFAA2CC9AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD7F73-8DC0-4423-BD7E-7977A824E934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" firstSheet="1" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="9" r:id="rId1"/>
     <sheet name="Destination" sheetId="10" r:id="rId2"/>
-    <sheet name="OptionDestination" sheetId="11" r:id="rId3"/>
-    <sheet name="Destination_TraderOnly" sheetId="12" r:id="rId4"/>
-    <sheet name="Side" sheetId="13" r:id="rId5"/>
-    <sheet name="TIF" sheetId="14" r:id="rId6"/>
-    <sheet name="CommType" sheetId="15" r:id="rId7"/>
-    <sheet name="OrdType" sheetId="16" r:id="rId8"/>
-    <sheet name="LocateTIF" sheetId="17" r:id="rId9"/>
-    <sheet name="MktTopPerfCateg" sheetId="18" r:id="rId10"/>
-    <sheet name="MktTopPerfExchange" sheetId="19" r:id="rId11"/>
-    <sheet name="ETBHTB" sheetId="22" r:id="rId12"/>
-    <sheet name="BlotterPackagePermissions" sheetId="20" r:id="rId13"/>
-    <sheet name="BlotterPermissions" sheetId="21" r:id="rId14"/>
-    <sheet name="PutCall" sheetId="23" r:id="rId15"/>
-    <sheet name="CoveredUncovered" sheetId="24" r:id="rId16"/>
-    <sheet name="CustomerFirm" sheetId="25" r:id="rId17"/>
-    <sheet name="OptionOrderType" sheetId="26" r:id="rId18"/>
-    <sheet name="OptionTIF" sheetId="27" r:id="rId19"/>
+    <sheet name="Option_Equity_Destination" sheetId="28" r:id="rId3"/>
+    <sheet name="OptionDestination" sheetId="11" r:id="rId4"/>
+    <sheet name="Destination_TraderOnly" sheetId="12" r:id="rId5"/>
+    <sheet name="Side" sheetId="13" r:id="rId6"/>
+    <sheet name="TIF" sheetId="14" r:id="rId7"/>
+    <sheet name="CommType" sheetId="15" r:id="rId8"/>
+    <sheet name="OrdType" sheetId="16" r:id="rId9"/>
+    <sheet name="LocateTIF" sheetId="17" r:id="rId10"/>
+    <sheet name="MktTopPerfCateg" sheetId="18" r:id="rId11"/>
+    <sheet name="MktTopPerfExchange" sheetId="19" r:id="rId12"/>
+    <sheet name="ETBHTB" sheetId="22" r:id="rId13"/>
+    <sheet name="BlotterPackagePermissions" sheetId="20" r:id="rId14"/>
+    <sheet name="BlotterPermissions" sheetId="21" r:id="rId15"/>
+    <sheet name="PutCall" sheetId="23" r:id="rId16"/>
+    <sheet name="CoveredUncovered" sheetId="24" r:id="rId17"/>
+    <sheet name="CustomerFirm" sheetId="25" r:id="rId18"/>
+    <sheet name="OptionOrderType" sheetId="26" r:id="rId19"/>
+    <sheet name="OptionTIF" sheetId="27" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="331">
   <si>
     <t>Content_Type</t>
   </si>
@@ -909,6 +910,144 @@
   </si>
   <si>
     <t>EndpointVersion</t>
+  </si>
+  <si>
+    <t>StaticData_Equity_Option_Destination_TestCases</t>
+  </si>
+  <si>
+    <t>StaticData_Equity_Option_Destination_BasePath</t>
+  </si>
+  <si>
+    <t>StaticData_Equity_Option_Destination_StatusCode</t>
+  </si>
+  <si>
+    <t>Validate_Equity_Option_Destination_Name</t>
+  </si>
+  <si>
+    <t>Validate_Equity_Option_Destination_Value</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/staticData/account-destination</t>
+  </si>
+  <si>
+    <t>Validate_Equity_Option_Destination_Accounts</t>
+  </si>
+  <si>
+    <t>Validate_Equity_Option_Destination_isEquity</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Validate_Equity_Option_Destination_isOptions</t>
+  </si>
+  <si>
+    <t>Validate_Equity_Option_Destination_isComplex</t>
+  </si>
+  <si>
+    <t>Validate_Equity_Option_Destination_isFractional</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0001</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{"value":"100012"},{"value":"10001"},{"value":"10005"}]</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0004</t>
+  </si>
+  <si>
+    <t>[{"value":"100012"},{"value":"10001"},{"value":"10005"},{"value":"12121"}]</t>
+  </si>
+  <si>
+    <t>[{"value":"100012"},{"value":"10001"},{"value":"10003"},{"value":"10005"},{"value":"1LOC-LOCA-123456-M"}]</t>
+  </si>
+  <si>
+    <t>[{"value":"10002"},{"value":"10004"},{"value":"10005"},{"value":"qatest28account12"},{"value":"qatest28account1"},{"value":"100012"},{"value":"10001"},{"value":"10003"},{"value":"12121"},{"value":"1LOC-LOCA-123456-M"}]</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0005</t>
+  </si>
+  <si>
+    <t>[{"value":"10005"},{"value":"1LOC-LOCA-123456-M"}]</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0006</t>
+  </si>
+  <si>
+    <t>[{"value":"10005"}]</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0007</t>
+  </si>
+  <si>
+    <t>VTRD</t>
+  </si>
+  <si>
+    <t>"-VTRD"</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0008</t>
+  </si>
+  <si>
+    <t>TSOR</t>
+  </si>
+  <si>
+    <t>"-TSOR"</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0009</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0010</t>
+  </si>
+  <si>
+    <t>SOR</t>
+  </si>
+  <si>
+    <t>"-SOR"</t>
+  </si>
+  <si>
+    <t>QNTX</t>
+  </si>
+  <si>
+    <t>"-QNTX"</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0011</t>
+  </si>
+  <si>
+    <t>[{"value":"10005"},{"value":"12121"},{"value":"1LOC-LOCA-123456-M"}]</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0012</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0013</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0014</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TC0015</t>
+  </si>
+  <si>
+    <t>[{"value":"10005"},{"value":"12121"}]</t>
+  </si>
+  <si>
+    <t>"-ATSNO"</t>
+  </si>
+  <si>
+    <t>ATSNO</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1028,6 +1167,21 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F97819-0497-470B-932D-7124C01F5F73}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1575,6 +1729,111 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A187E8-21EB-411C-ABE1-3FE3637DF611}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A00EB-9916-402E-A52E-47847770BA71}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1731,7 +1990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19004EE8-B1F1-4529-B662-24C899BA3C5C}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -1965,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0CA8EC-C674-4DE4-8CE4-3B36CC901C3B}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2058,7 +2317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49457023-34CD-4B1B-B7DC-20BBA5A807F9}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -2297,7 +2556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6726326-2C70-4439-A0BF-1A27192F1C12}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2375,7 +2634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81768D37-C102-4CB6-B153-7090BE3D93AD}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2479,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE88B395-5588-4CAE-91B8-7344D7D4DCBF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2583,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC773AF-692E-4D32-B04F-4CD8F723C684}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2687,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBE75A1-59F4-4EE0-A196-5F3004F5BDCF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2786,137 +3045,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F6CCF-BB7D-4457-B17E-E5A4145A94D1}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>200</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3153,7 +3281,825 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F6CCF-BB7D-4457-B17E-E5A4145A94D1}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E046C25-1D57-44E9-8F5F-078556936B14}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="201.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="49" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="49" style="22" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20">
+        <v>200</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
+        <v>200</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20">
+        <v>200</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>200</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
+        <v>200</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>200</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>200</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>200</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20">
+        <v>200</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>200</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>200</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>200</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>200</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A5A6CE-1FF1-41EB-A637-FC236B4E00FB}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3268,7 +4214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750D010-10D0-4EB3-A3FE-203D0C24AABA}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3502,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8DFC57-1736-45E9-A86D-2443AC6C695A}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3633,7 +4579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CD2B4-F7F5-4A73-BB5A-E209C9D92C70}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3868,7 +4814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C633D2-212A-469D-B16A-DA7E2E5F6C2C}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3998,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDE52E5-B96A-42BA-9C18-471F7BF48EC7}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -4153,109 +5099,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A187E8-21EB-411C-ABE1-3FE3637DF611}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/java/Static_Data/Data/Static_Data.xlsx
+++ b/src/test/java/Static_Data/Data/Static_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Static_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8359109-1DDC-43D8-A128-2A37B6EBFB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1307BFB-8FEF-443A-9C8C-D7D3102C57B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" firstSheet="6" activeTab="7" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" firstSheet="4" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="9" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="437">
   <si>
     <t>Content_Type</t>
   </si>
@@ -540,81 +540,6 @@
     <t>StaticData_BlotterPermissions_TestCases</t>
   </si>
   <si>
-    <t>Verify_StaticData_Account_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Account_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfCateg_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfCateg_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfCateg_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfCateg_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPermissions_TC0001</t>
-  </si>
-  <si>
     <t>/int/ord/api/v3/staticData/PutCall</t>
   </si>
   <si>
@@ -792,21 +717,6 @@
     <t>Validate_isBoxVsShort</t>
   </si>
   <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0008</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0009</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0010</t>
-  </si>
-  <si>
     <t>optionTicketWindow</t>
   </si>
   <si>
@@ -822,48 +732,9 @@
     <t>exchangeAgreementWindow</t>
   </si>
   <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0011</t>
-  </si>
-  <si>
     <t>feeAndCommissionWindow</t>
   </si>
   <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0012</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0013</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0014</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0015</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0016</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0017</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0018</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0019</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0020</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0021</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0022</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPackage_Permissions_TC0023</t>
-  </si>
-  <si>
     <t>optionPositionWindow</t>
   </si>
   <si>
@@ -900,18 +771,6 @@
     <t>blotterOptionTradeWindow</t>
   </si>
   <si>
-    <t>Verify_StaticData_BlotterPermissions_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPermissions_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPermissions_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_BlotterPermissions_TC0005</t>
-  </si>
-  <si>
     <t>IsFractionalOrdersAllowed</t>
   </si>
   <si>
@@ -936,36 +795,9 @@
     <t>"-LOOP"</t>
   </si>
   <si>
-    <t>Verify_StaticData_Destination_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0008</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0009</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0010</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Destination_TC0011</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_LocateTIF_With_IOC_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_LocateTIF_With_FOK_TC0002</t>
-  </si>
-  <si>
     <t>/int/ord/api/v3.1/staticData/ETBHTB/AutoAccount/AA</t>
   </si>
   <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_AA_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_A_TC0002</t>
-  </si>
-  <si>
     <t>/int/ord/api/v3.1/staticData/ETBHTB/AutoAccount/IBM</t>
   </si>
   <si>
@@ -984,45 +816,6 @@
     <t>Validate_ETBHTB_EtbListType</t>
   </si>
   <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_IBM_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_AAA_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_MSFT_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_QQQ_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_AAPL_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_TSLA_TC0008</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_GOOG_TC0009</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_FCN_TC0010</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_AAGC_TC0011</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_AAL_TC0012</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_BRK.B_TC0013</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_BRK.A_TC0014</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_ETBHTB_With_Symbol_B_TC0015</t>
-  </si>
-  <si>
     <t>AAA</t>
   </si>
   <si>
@@ -1140,129 +933,12 @@
     <t>/int/ord/api/v3.1/staticData/ETBHTB/AutoAccountBVS/BRK.A</t>
   </si>
   <si>
-    <t>[{"value":"AutoAccountBVS"},{"value":"AutoAccount"}]</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Equity_Option_Destination_ARCA_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_Equity_Option_Destination_OPTFIX_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Day_TIF_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_GTC_TIF_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_OPG_TIF_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_IOC_TIF_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_FOK_TIF_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_GTX_TIF_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_GTD_TIF_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_MKT_OrdType_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_LMT_OrdType_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_STOP_OrdType_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_STOPLMT_OrdType_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_OPTFIX_OptionDestination_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_OPTZAK_OptionDestination_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_ARCA_OptionDestination_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_CBA_OptionDestination_TC0004</t>
-  </si>
-  <si>
     <t>CBA</t>
   </si>
   <si>
     <t>"-CBA"</t>
   </si>
   <si>
-    <t>Verify_StaticData_With_CMPLX_OptionDestination_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_BUY_Side_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_SELL_Side_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_SS_Side_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Per_Share_CommType_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Percentage_CommType_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Absolute_CommType_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_PUT_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_CALL_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Covered_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Uncovered_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Firm_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_Customer_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_LMT_OptionOrderType_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_MKT_OptionOrderType_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_STOP_OptionOrderType_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_STOPLMT_OptionOrderType_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_DAY_OptionTIF_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_IOC_OptionTIF_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_FOK_OptionTIF_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_GTC_OptionTIF_TC0004</t>
-  </si>
-  <si>
     <t>BATS</t>
   </si>
   <si>
@@ -1311,58 +987,385 @@
     <t>Q</t>
   </si>
   <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0008</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0009</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0010</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0011</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0012</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0013</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0014</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_MktTopPerfExchange_TC0015</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_ATRT_Destination_TraderOnly_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_ASOR_Destination_TraderOnly_TC0001</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_ATS_Destination_TraderOnly_TC0006</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_LOOP_Destination_TraderOnly_TC0007</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_CMPLX_Destination_TraderOnly_TC0005</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_LATE_Destination_TraderOnly_TC0004</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_APIFIX_Destination_TraderOnly_TC0003</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_TSOR_Destination_TraderOnly_TC0008</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_NOFILL_Destination_TraderOnly_TC0009</t>
-  </si>
-  <si>
-    <t>Verify_StaticData_With_ATSNO_Destination_TraderOnly_TC0010</t>
+    <t>Verify_StaticData_Account_TestCase_VTRAD-C420-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Account_TestCase_VTRAD-C420-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Account_TestCase_VTRAD-C420-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPermissions_TestCase_VTRAD-C437-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPermissions_TestCase_VTRAD-C437-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPermissions_TestCase_VTRAD-C437-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPermissions_TestCase_VTRAD-C437-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPermissions_TestCase_VTRAD-C437-E</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A1</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A2</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A3</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A4</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A5</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A6</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A7</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A8</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A9</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A10</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A11</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A12</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A13</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A14</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A15</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A16</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A17</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A18</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A19</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A20</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A21</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A22</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_BlotterPackage_Permissions_TestCase_VTRAD-C1250-A23</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C426-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C345-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C368-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C369-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C426-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C345-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C368-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C369-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C426-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C369-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Destination_TestCase_VTRAD-C368-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TestCase_VTRAD-C366</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_Equity_Option_Destination_TestCase_VTRAD-C438</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_OPTZAK_OptionDestination_TestCase_VTRAD-C370</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_ARCA_OptionDestination_TestCase_VTRAD-C367</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_CBA_OptionDestination_TestCase_VTRAD-C346</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_CMPLX_OptionDestination_TestCase_VTRAD-C427-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_OPTFIX_OptionDestination_TestCase_VTRAD-C427-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_LocateTIF_With_IOC_TestCase_VTRAD-C433-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_LocateTIF_With_FOK_TestCase_VTRAD-C433-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_ASOR_Destination_TraderOnly_TestCase_VTRAD-C428-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_ATRT_Destination_TraderOnly_TestCase_VTRAD-C428-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_APIFIX_Destination_TraderOnly_TestCase_VTRAD-C428-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_LATE_Destination_TraderOnly_TestCase_VTRAD-C428-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_CMPLX_Destination_TraderOnly_TestCase_VTRAD-C428-E</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_ATS_Destination_TraderOnly_TestCase_VTRAD-C428-F</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_LOOP_Destination_TraderOnly_TestCase_VTRAD-C428-G</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_TSOR_Destination_TraderOnly_TestCase_VTRAD-C428-H</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_NOFILL_Destination_TraderOnly_TestCase_VTRAD-C428-I</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_ATSNO_Destination_TraderOnly_TestCase_VTRAD-C428-J</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_BUY_Side_TestCase_VTRAD-C429-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_SELL_Side_TestCase_VTRAD-C429-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_SS_Side_TestCase_VTRAD-C429-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Day_TIF_TestCase_VTRAD-C430-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_GTC_TIF_TestCase_VTRAD-C430-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_OPG_TIF_TestCase_VTRAD-C430-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_IOC_TIF_TestCase_VTRAD-C430-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_FOK_TIF_TestCase_VTRAD-C430-E</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_GTX_TIF_TestCase_VTRAD-C430-F</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_GTD_TIF_TestCase_VTRAD-C430-G</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Per_Share_CommType_TestCase_VTRAD-C432-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Percentage_CommType_TestCase_VTRAD-C432-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Absolute_CommType_TestCase_VTRAD-C432-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_MKT_OrdType_TestCase_VTRAD-C431-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_LMT_OrdType_TestCase_VTRAD-C431-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_STOP_OrdType_TestCase_VTRAD-C431-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_STOPLMT_OrdType_TestCase_VTRAD-C431-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfCateg_TestCase_VTRAD-C434-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfCateg_TestCase_VTRAD-C434-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfCateg_TestCase_VTRAD-C434-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfCateg_TestCase_VTRAD-C434-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-E</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-F</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-G</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-H</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-I</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-J</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-K</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-L</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-N</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-O</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_MktTopPerfExchange_TestCase_VTRAD-C435-P</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_AA_TestCase_VTRAD-C436-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_A_TestCase_VTRAD-C436-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_AAA_TestCase_VTRAD-C436-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_IBM_TestCase_VTRAD-C436-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_MSFT_TestCase_VTRAD-C436-E</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_QQQ_TestCase_VTRAD-C436-F</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_AAPL_TestCase_VTRAD-C436-G</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_TSLA_TestCase_VTRAD-C436-H</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_GOOG_TestCase_VTRAD-C436-I</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_FCN_TestCase_VTRAD-C436-J</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_AAGC_TestCase_VTRAD-C436-L</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_AAL_TestCase_VTRAD-C436-M</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_BRK.B_TestCase_VTRAD-C436-N</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_BRK.A_TestCase_VTRAD-C436-O</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_ETBHTB_With_Symbol_B_TestCase_VTRAD-C436-P</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_DAY_OptionTIF_TestCase_VTRAD-C425-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_IOC_OptionTIF_TestCase_VTRAD-C425-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_FOK_OptionTIF_TestCase_VTRAD-C425-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_GTC_OptionTIF_TestCase_VTRAD-C425-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_LMT_OptionOrderType_TestCase_VTRAD-C424-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_MKT_OptionOrderType_TestCase_VTRAD-C424-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_STOP_OptionOrderType_TestCase_VTRAD-C424-C</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_STOPLMT_OptionOrderType_TestCase_VTRAD-C424-D</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Firm_TestCase_VTRAD-C423-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Customer_TestCase_VTRAD-C423-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Covered_TestCase_VTRAD-C422-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_Uncovered_TestCase_VTRAD-C422-B</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_CALL_TestCase_VTRAD-C421-A</t>
+  </si>
+  <si>
+    <t>Verify_StaticData_With_PUT_TestCase_VTRAD-C421-B</t>
+  </si>
+  <si>
+    <t>[{"value":"AutoAccountBVS"},{"value":"AutoAccount"},{"value":"1LOC-LOCA-123456-M"}]</t>
   </si>
 </sst>
 </file>
@@ -1476,19 +1479,27 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1803,15 +1814,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F97819-0497-470B-932D-7124C01F5F73}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35" customWidth="1"/>
+    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
@@ -1826,7 +1838,7 @@
         <v>147</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1838,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -1852,10 +1864,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1867,13 +1879,13 @@
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1881,10 +1893,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -1899,12 +1911,41 @@
         <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1920,7 +1961,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +1981,7 @@
         <v>152</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>50</v>
@@ -1963,10 +2004,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>54</v>
@@ -1989,10 +2030,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>54</v>
@@ -2015,10 +2056,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -2041,10 +2082,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>54</v>
@@ -2067,10 +2108,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>54</v>
@@ -2093,10 +2134,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>54</v>
@@ -2119,10 +2160,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>54</v>
@@ -2155,12 +2196,13 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="43" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="44.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" style="8" customWidth="1"/>
@@ -2174,7 +2216,7 @@
         <v>153</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>65</v>
@@ -2197,10 +2239,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>62</v>
@@ -2223,10 +2265,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>62</v>
@@ -2249,10 +2291,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>62</v>
@@ -2285,12 +2327,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" activeCellId="1" sqref="B12 C22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="8" customWidth="1"/>
@@ -2305,7 +2347,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>69</v>
@@ -2328,10 +2370,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>73</v>
@@ -2354,10 +2396,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>73</v>
@@ -2380,10 +2422,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>73</v>
@@ -2406,10 +2448,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>73</v>
@@ -2442,12 +2484,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -2462,7 +2504,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>82</v>
@@ -2485,10 +2527,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>86</v>
@@ -2511,10 +2553,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>86</v>
@@ -2537,10 +2579,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>86</v>
@@ -2563,10 +2605,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>86</v>
@@ -2599,12 +2641,13 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
@@ -2618,7 +2661,7 @@
         <v>157</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>91</v>
@@ -2641,10 +2684,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>95</v>
@@ -2667,10 +2710,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>95</v>
@@ -2693,10 +2736,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>95</v>
@@ -2719,10 +2762,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>95</v>
@@ -2745,10 +2788,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>95</v>
@@ -2771,10 +2814,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>95</v>
@@ -2797,10 +2840,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>95</v>
@@ -2823,10 +2866,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>95</v>
@@ -2838,10 +2881,10 @@
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>20</v>
@@ -2849,10 +2892,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>95</v>
@@ -2864,10 +2907,10 @@
         <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>20</v>
@@ -2875,10 +2918,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>95</v>
@@ -2890,10 +2933,10 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
-        <v>407</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>20</v>
@@ -2901,10 +2944,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>95</v>
@@ -2916,10 +2959,10 @@
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>409</v>
+        <v>301</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>20</v>
@@ -2927,10 +2970,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>95</v>
@@ -2942,10 +2985,10 @@
         <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="G13" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>20</v>
@@ -2953,10 +2996,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>95</v>
@@ -2968,10 +3011,10 @@
         <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="G14" t="s">
-        <v>413</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>20</v>
@@ -2979,10 +3022,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>95</v>
@@ -2994,10 +3037,10 @@
         <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
       <c r="G15" t="s">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
@@ -3005,10 +3048,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>95</v>
@@ -3020,10 +3063,10 @@
         <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>416</v>
+        <v>308</v>
       </c>
       <c r="G16" t="s">
-        <v>417</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
@@ -3041,12 +3084,12 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="84.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="56.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -3065,7 +3108,7 @@
         <v>158</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>131</v>
@@ -3077,7 +3120,7 @@
         <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>140</v>
@@ -3086,7 +3129,7 @@
         <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>138</v>
@@ -3095,13 +3138,13 @@
         <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>136</v>
@@ -3109,13 +3152,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -3124,7 +3167,7 @@
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>5</v>
@@ -3156,13 +3199,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -3171,7 +3214,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>5</v>
@@ -3198,18 +3241,18 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -3218,16 +3261,16 @@
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3245,18 +3288,18 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -3265,16 +3308,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3292,18 +3335,18 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -3312,16 +3355,16 @@
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3339,18 +3382,18 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
@@ -3359,16 +3402,16 @@
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3386,18 +3429,18 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
@@ -3406,16 +3449,16 @@
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3433,18 +3476,18 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>1</v>
@@ -3453,16 +3496,16 @@
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3480,18 +3523,18 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
@@ -3500,16 +3543,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3527,18 +3570,18 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1</v>
@@ -3547,16 +3590,16 @@
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3574,18 +3617,18 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>339</v>
+        <v>270</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1</v>
@@ -3594,16 +3637,16 @@
         <v>200</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -3621,18 +3664,18 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1</v>
@@ -3641,16 +3684,16 @@
         <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -3668,18 +3711,18 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1</v>
@@ -3688,16 +3731,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3715,18 +3758,18 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -3735,16 +3778,16 @@
         <v>200</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3762,18 +3805,18 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>1</v>
@@ -3782,7 +3825,7 @@
         <v>200</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>5</v>
@@ -3809,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3824,7 +3867,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3841,25 +3884,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>8</v>
@@ -3867,13 +3910,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -3882,7 +3925,7 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3893,13 +3936,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -3908,7 +3951,7 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3929,12 +3972,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -3946,25 +3989,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>8</v>
@@ -3972,13 +4015,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -3987,7 +4030,7 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3998,13 +4041,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -4013,7 +4056,7 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4033,12 +4076,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -4050,25 +4093,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>8</v>
@@ -4076,13 +4119,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -4091,7 +4134,7 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4102,13 +4145,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -4117,7 +4160,7 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4137,12 +4180,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -4154,25 +4197,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>8</v>
@@ -4180,13 +4223,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -4206,13 +4249,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -4232,13 +4275,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -4258,13 +4301,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -4294,12 +4337,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -4314,7 +4357,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>110</v>
@@ -4337,10 +4380,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
@@ -4363,10 +4406,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>113</v>
@@ -4389,10 +4432,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
@@ -4415,10 +4458,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>113</v>
@@ -4430,7 +4473,7 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>119</v>
@@ -4441,10 +4484,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>113</v>
@@ -4477,12 +4520,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -4494,25 +4537,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>8</v>
@@ -4520,13 +4563,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -4535,7 +4578,7 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4546,13 +4589,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -4572,13 +4615,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -4598,13 +4641,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -4633,13 +4676,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49457023-34CD-4B1B-B7DC-20BBA5A807F9}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -4657,7 +4700,7 @@
         <v>159</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>127</v>
@@ -4689,10 +4732,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
@@ -4724,10 +4767,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>113</v>
@@ -4759,10 +4802,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
@@ -4794,10 +4837,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>113</v>
@@ -4829,10 +4872,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>113</v>
@@ -4864,10 +4907,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>113</v>
@@ -4879,7 +4922,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>119</v>
@@ -4899,10 +4942,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>113</v>
@@ -4914,7 +4957,7 @@
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>119</v>
@@ -4934,10 +4977,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>113</v>
@@ -4949,7 +4992,7 @@
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>119</v>
@@ -4969,10 +5012,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>113</v>
@@ -4984,7 +5027,7 @@
         <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>119</v>
@@ -5004,10 +5047,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>113</v>
@@ -5019,7 +5062,7 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>119</v>
@@ -5039,10 +5082,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>113</v>
@@ -5054,7 +5097,7 @@
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>119</v>
@@ -5074,10 +5117,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>113</v>
@@ -5089,7 +5132,7 @@
         <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>119</v>
@@ -5109,10 +5152,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>113</v>
@@ -5124,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>119</v>
@@ -5144,10 +5187,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>113</v>
@@ -5159,7 +5202,7 @@
         <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>119</v>
@@ -5179,10 +5222,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>113</v>
@@ -5194,7 +5237,7 @@
         <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>119</v>
@@ -5214,10 +5257,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>113</v>
@@ -5229,7 +5272,7 @@
         <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>119</v>
@@ -5249,10 +5292,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>113</v>
@@ -5264,7 +5307,7 @@
         <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>119</v>
@@ -5284,10 +5327,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>113</v>
@@ -5299,7 +5342,7 @@
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>119</v>
@@ -5319,10 +5362,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>113</v>
@@ -5334,7 +5377,7 @@
         <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>119</v>
@@ -5354,10 +5397,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>113</v>
@@ -5369,7 +5412,7 @@
         <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>119</v>
@@ -5389,10 +5432,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>113</v>
@@ -5404,7 +5447,7 @@
         <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>119</v>
@@ -5424,10 +5467,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>113</v>
@@ -5439,7 +5482,7 @@
         <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>119</v>
@@ -5459,10 +5502,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>113</v>
@@ -5474,7 +5517,7 @@
         <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>119</v>
@@ -5504,12 +5547,12 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -5524,7 +5567,7 @@
         <v>148</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>22</v>
@@ -5547,10 +5590,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5562,10 +5605,10 @@
         <v>200</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>20</v>
@@ -5573,10 +5616,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -5599,10 +5642,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -5625,10 +5668,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -5643,7 +5686,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>20</v>
@@ -5651,10 +5694,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -5666,10 +5709,10 @@
         <v>200</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
@@ -5677,10 +5720,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -5703,10 +5746,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -5718,10 +5761,10 @@
         <v>200</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>20</v>
@@ -5729,10 +5772,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -5744,10 +5787,10 @@
         <v>200</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>20</v>
@@ -5755,10 +5798,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -5781,10 +5824,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -5807,10 +5850,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -5822,10 +5865,10 @@
         <v>200</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>20</v>
@@ -5842,147 +5885,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E046C25-1D57-44E9-8F5F-078556936B14}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="54.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="49" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="49" style="19" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="77.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="49" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="49" style="20" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="M1" s="9" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17">
-        <v>200</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="A2" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>200</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>237</v>
+      <c r="K2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>200</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="A3" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>200</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>237</v>
+      <c r="K3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5996,13 +6039,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A5A6CE-1FF1-41EB-A637-FC236B4E00FB}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="1" max="1" width="77.140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -6018,7 +6061,7 @@
         <v>149</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -6044,10 +6087,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -6073,10 +6116,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
@@ -6102,10 +6145,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -6120,7 +6163,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>9</v>
@@ -6131,10 +6174,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -6146,10 +6189,10 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>9</v>
@@ -6160,10 +6203,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -6175,10 +6218,10 @@
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>9</v>
@@ -6199,12 +6242,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -6219,7 +6262,7 @@
         <v>155</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>77</v>
@@ -6242,10 +6285,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>81</v>
@@ -6268,10 +6311,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>81</v>
@@ -6303,13 +6346,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750D010-10D0-4EB3-A3FE-203D0C24AABA}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -6324,7 +6367,7 @@
         <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>34</v>
@@ -6347,10 +6390,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>33</v>
@@ -6373,10 +6416,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -6399,10 +6442,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>33</v>
@@ -6414,10 +6457,10 @@
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>20</v>
@@ -6425,10 +6468,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>33</v>
@@ -6451,10 +6494,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
@@ -6466,10 +6509,10 @@
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
@@ -6477,10 +6520,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>33</v>
@@ -6503,10 +6546,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>
@@ -6518,10 +6561,10 @@
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>292</v>
+        <v>244</v>
+      </c>
+      <c r="G8" t="s">
+        <v>245</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>20</v>
@@ -6529,10 +6572,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -6544,10 +6587,10 @@
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>20</v>
@@ -6555,10 +6598,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
@@ -6581,10 +6624,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
@@ -6596,10 +6639,10 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>20</v>
@@ -6617,12 +6660,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -6637,7 +6680,7 @@
         <v>151</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>46</v>
@@ -6660,10 +6703,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
@@ -6686,10 +6729,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -6712,10 +6755,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>

--- a/src/test/java/Static_Data/Data/Static_Data.xlsx
+++ b/src/test/java/Static_Data/Data/Static_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Static_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1307BFB-8FEF-443A-9C8C-D7D3102C57B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF623A-4934-4EA8-B607-35263D7A93BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" firstSheet="4" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="438">
   <si>
     <t>Content_Type</t>
   </si>
@@ -1366,6 +1366,9 @@
   </si>
   <si>
     <t>[{"value":"AutoAccountBVS"},{"value":"AutoAccount"},{"value":"1LOC-LOCA-123456-M"}]</t>
+  </si>
+  <si>
+    <t>[{"value":"1LOC-LOCA-123456-M"},{"value":"AutoAccountBVS"},{"value":"AutoAccount"}]</t>
   </si>
 </sst>
 </file>
@@ -5885,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E046C25-1D57-44E9-8F5F-078556936B14}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,7 +5972,7 @@
         <v>243</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>119</v>
